--- a/i_codebooks/D3_TD_pregnancy_during_followup_ImmDis.xlsx
+++ b/i_codebooks/D3_TD_pregnancy_during_followup_ImmDis.xlsx
@@ -269,9 +269,6 @@
     <t>end_record_d</t>
   </si>
   <si>
-    <t>pregnancy</t>
-  </si>
-  <si>
     <t>Time-dependent dataset stating when a person in follow-up in the cohort of {ImmDis} is pregnant. Unlike inD3_pregnancy_while_in_followup_periods_in_cohort_{ImmDis}, in this dataset there is no memory of which oregnancy is involved, this dataset is only meant to label person-time in followup as pregnant or non-pregnant</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>end of the value 'pregnancy'</t>
+  </si>
+  <si>
+    <t>pregnancy_{ImmDis}</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>39</v>
@@ -952,7 +952,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>39</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1200,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
